--- a/DSA  CP ShapeAI.xlsx
+++ b/DSA  CP ShapeAI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devendra\Documents\Competitive Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deven\Desktop\Workspace\Competitive-Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59489283-A09A-4B22-A255-572549101D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE6133D-C4B6-44C0-920C-066A2185C03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{889F8432-A184-4A7C-BCCF-A8F3D10B18FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{889F8432-A184-4A7C-BCCF-A8F3D10B18FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6033C831-82EA-429A-9EFB-4415630A0991}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
